--- a/fpga/src/lib/keyboard/scancode2ascii.xlsx
+++ b/fpga/src/lib/keyboard/scancode2ascii.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\exp11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\riscv\fpga\src\lib\keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E2BD91-6500-424D-9CCA-DB1F012A5A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C0D79-4991-4D1A-ACE7-F9939004673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6C356-E152-4F42-BD56-178A8165E0F8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="481">
   <si>
     <r>
       <t> </t>
@@ -6605,6 +6605,10 @@
 DATA_RADIX=HEX;
 CONTENT
 BEGIN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7107,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E083A96-412C-4C59-B782-45418700A877}">
   <dimension ref="B1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8549,13 +8553,8 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M44" t="str">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="4"/>
-        <v>45</v>
+      <c r="M44" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.2">
@@ -9903,8 +9902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10D42C-C0C1-40A4-8354-68B60F5B3ADE}">
   <dimension ref="C2:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J259"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F259" sqref="F4:F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12543,27 +12542,27 @@
       </c>
       <c r="D94" t="str">
         <f>INDEX(Sheet1!$M$5:$M$55, MATCH(C94,Sheet1!$L$5:$L$55, 0))</f>
-        <v>45</v>
+        <v>0A</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 45</v>
+        <v xml:space="preserve"> 0A</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="5"/>
-        <v>5A:  45;</v>
-      </c>
-      <c r="H94" t="str">
+        <v>5A:  0A;</v>
+      </c>
+      <c r="H94">
         <f>INDEX(Sheet1!$N$5:$N$55, MATCH(C94,Sheet1!$L$5:$L$55, 0))</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> 45</v>
+        <v xml:space="preserve"> 00</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="7"/>
-        <v>15A:  45;</v>
+        <v>15A:  00;</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.2">

--- a/fpga/src/lib/keyboard/scancode2ascii.xlsx
+++ b/fpga/src/lib/keyboard/scancode2ascii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\riscv\fpga\src\lib\keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C0D79-4991-4D1A-ACE7-F9939004673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62159760-9309-443E-9112-EEC7FA4354B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6C356-E152-4F42-BD56-178A8165E0F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C1F6C356-E152-4F42-BD56-178A8165E0F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="482">
   <si>
     <r>
       <t> </t>
@@ -6609,6 +6609,10 @@
   </si>
   <si>
     <t>0A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6749,7 +6753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6794,6 +6798,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7111,14 +7118,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E083A96-412C-4C59-B782-45418700A877}">
   <dimension ref="B1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9" style="15"/>
+    <col min="12" max="12" width="13.75" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9" style="15"/>
+    <col min="14" max="14" width="11.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
@@ -7163,16 +7172,16 @@
       <c r="E4" s="14"/>
       <c r="F4" s="7"/>
       <c r="G4" s="11"/>
-      <c r="K4" t="s">
+      <c r="K4" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="15" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7195,19 +7204,19 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="15" t="str">
         <f>MID(D5, 2, 2)</f>
         <v>0E</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <f>HEX2DEC(K5)</f>
         <v>14</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="15" t="str">
         <f>DEC2HEX(CODE(MID(F5, 2, 1)))</f>
         <v>60</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5" s="15" t="str">
         <f>DEC2HEX(CODE(MID(G5, 2, 1)))</f>
         <v>7E</v>
       </c>
@@ -7231,19 +7240,19 @@
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="15" t="str">
         <f t="shared" ref="K6:K55" si="0">MID(D6, 2, 2)</f>
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <f t="shared" ref="L6:L55" si="1">HEX2DEC(K6)</f>
         <v>22</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="15" t="str">
         <f t="shared" ref="M6:M17" si="2">DEC2HEX(CODE(MID(F6, 2, 1)))</f>
         <v>31</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6" s="15" t="str">
         <f t="shared" ref="N6:N17" si="3">DEC2HEX(CODE(MID(G6, 2, 1)))</f>
         <v>21</v>
       </c>
@@ -7267,19 +7276,19 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="15" t="str">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -7303,19 +7312,19 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8" s="15" t="str">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -7339,19 +7348,19 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="15" t="str">
         <f>MID(D9, 2, 2)</f>
         <v>25</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="15" t="str">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9" s="15" t="str">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -7375,19 +7384,19 @@
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="15" t="str">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="15" t="str">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -7411,19 +7420,19 @@
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11" s="15" t="str">
         <f t="shared" si="3"/>
         <v>5E</v>
       </c>
@@ -7447,19 +7456,19 @@
       <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="15" t="str">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12" s="15" t="str">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -7483,19 +7492,19 @@
       <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="15">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2A</v>
       </c>
@@ -7519,19 +7528,19 @@
       <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N14" s="15" t="str">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -7555,19 +7564,19 @@
       <c r="G15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M15" s="15" t="str">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N15" t="str">
+      <c r="N15" s="15" t="str">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -7591,19 +7600,19 @@
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4E</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="15" t="str">
         <f t="shared" si="2"/>
         <v>2D</v>
       </c>
-      <c r="N16" t="str">
+      <c r="N16" s="15" t="str">
         <f t="shared" si="3"/>
         <v>5F</v>
       </c>
@@ -7627,19 +7636,19 @@
       <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="15" t="str">
         <f t="shared" si="2"/>
         <v>3D</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N17" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2B</v>
       </c>
@@ -7661,6 +7670,17 @@
         <v>58</v>
       </c>
       <c r="G18" s="2"/>
+      <c r="K18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="19" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -7699,19 +7719,19 @@
       <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="15">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="15" t="str">
         <f>DEC2HEX(CODE(MID(F20, 2, 1)))</f>
         <v>71</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20" s="15" t="str">
         <f t="shared" ref="N20:N55" si="4">DEC2HEX(CODE(MID(G20, 2, 1)))</f>
         <v>51</v>
       </c>
@@ -7735,19 +7755,19 @@
       <c r="G21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="15">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="15" t="str">
         <f t="shared" ref="M21:M55" si="5">DEC2HEX(CODE(MID(F21, 2, 1)))</f>
         <v>77</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N21" s="15" t="str">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
@@ -7771,19 +7791,19 @@
       <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="15">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="15" t="str">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22" s="15" t="str">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -7807,19 +7827,19 @@
       <c r="G23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="15">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="15" t="str">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N23" s="15" t="str">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
@@ -7843,19 +7863,19 @@
       <c r="G24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="15">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="15" t="str">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24" s="15" t="str">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
@@ -7879,19 +7899,19 @@
       <c r="G25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="15">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="15" t="str">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N25" s="15" t="str">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
@@ -7915,19 +7935,19 @@
       <c r="G26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="15">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26" s="15" t="str">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N26" s="15" t="str">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
@@ -7951,19 +7971,19 @@
       <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="15">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M27" s="15" t="str">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="N27" t="str">
+      <c r="N27" s="15" t="str">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
@@ -7987,19 +8007,19 @@
       <c r="G28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="15">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M28" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6F</v>
       </c>
-      <c r="N28" t="str">
+      <c r="N28" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4F</v>
       </c>
@@ -8023,19 +8043,19 @@
       <c r="G29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4D</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="15">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M29" s="15" t="str">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="N29" t="str">
+      <c r="N29" s="15" t="str">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -8059,19 +8079,19 @@
       <c r="G30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="15">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="M30" t="str">
+      <c r="M30" s="15" t="str">
         <f t="shared" si="5"/>
         <v>5B</v>
       </c>
-      <c r="N30" t="str">
+      <c r="N30" s="15" t="str">
         <f t="shared" si="4"/>
         <v>7B</v>
       </c>
@@ -8095,19 +8115,19 @@
       <c r="G31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>5B</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="15">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="M31" t="str">
+      <c r="M31" s="15" t="str">
         <f t="shared" si="5"/>
         <v>5D</v>
       </c>
-      <c r="N31" t="str">
+      <c r="N31" s="15" t="str">
         <f t="shared" si="4"/>
         <v>7D</v>
       </c>
@@ -8149,19 +8169,19 @@
       <c r="G33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="15">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="15" t="str">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="N33" t="str">
+      <c r="N33" s="15" t="str">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -8185,19 +8205,19 @@
       <c r="G34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M34" t="str">
+      <c r="M34" s="15" t="str">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="N34" t="str">
+      <c r="N34" s="15" t="str">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
@@ -8221,19 +8241,19 @@
       <c r="G35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="15">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35" s="15" t="str">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="N35" t="str">
+      <c r="N35" s="15" t="str">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -8257,19 +8277,19 @@
       <c r="G36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="M36" t="str">
+      <c r="M36" s="15" t="str">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="N36" t="str">
+      <c r="N36" s="15" t="str">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -8293,19 +8313,19 @@
       <c r="G37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="15">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M37" s="15" t="str">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="N37" t="str">
+      <c r="N37" s="15" t="str">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
@@ -8329,19 +8349,19 @@
       <c r="G38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="15">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38" s="15" t="str">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N38" s="15" t="str">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -8365,19 +8385,19 @@
       <c r="G39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="15">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="M39" t="str">
+      <c r="M39" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6A</v>
       </c>
-      <c r="N39" t="str">
+      <c r="N39" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4A</v>
       </c>
@@ -8401,19 +8421,19 @@
       <c r="G40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40" s="15" t="str">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="15">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M40" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6B</v>
       </c>
-      <c r="N40" t="str">
+      <c r="N40" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4B</v>
       </c>
@@ -8437,19 +8457,19 @@
       <c r="G41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4B</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M41" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6C</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N41" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4C</v>
       </c>
@@ -8473,19 +8493,19 @@
       <c r="G42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4C</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="15">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="M42" t="str">
+      <c r="M42" s="15" t="str">
         <f t="shared" si="5"/>
         <v>3B</v>
       </c>
-      <c r="N42" t="str">
+      <c r="N42" s="15" t="str">
         <f t="shared" si="4"/>
         <v>3A</v>
       </c>
@@ -8509,19 +8529,19 @@
       <c r="G43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="15" t="str">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="15">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43" s="15" t="str">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="N43" t="str">
+      <c r="N43" s="15" t="str">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -8545,15 +8565,15 @@
       <c r="G44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44" s="15" t="str">
         <f t="shared" si="0"/>
         <v>5A</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="15">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="15" t="s">
         <v>480</v>
       </c>
     </row>
@@ -8594,19 +8614,19 @@
       <c r="G46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46" s="15" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="15">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46" s="15" t="str">
         <f t="shared" si="5"/>
         <v>7A</v>
       </c>
-      <c r="N46" t="str">
+      <c r="N46" s="15" t="str">
         <f t="shared" si="4"/>
         <v>5A</v>
       </c>
@@ -8630,19 +8650,19 @@
       <c r="G47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47" s="15" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="15">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M47" s="15" t="str">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="N47" t="str">
+      <c r="N47" s="15" t="str">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
@@ -8666,19 +8686,19 @@
       <c r="G48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48" s="15" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="15">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48" s="15" t="str">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="N48" t="str">
+      <c r="N48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -8702,19 +8722,19 @@
       <c r="G49" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M49" s="15" t="str">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="N49" t="str">
+      <c r="N49" s="15" t="str">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
@@ -8738,19 +8758,19 @@
       <c r="G50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50" s="15" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50" s="15" t="str">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="N50" t="str">
+      <c r="N50" s="15" t="str">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -8774,19 +8794,19 @@
       <c r="G51" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" s="15" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="15">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6E</v>
       </c>
-      <c r="N51" t="str">
+      <c r="N51" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4E</v>
       </c>
@@ -8810,19 +8830,19 @@
       <c r="G52" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="15">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52" s="15" t="str">
         <f t="shared" si="5"/>
         <v>6D</v>
       </c>
-      <c r="N52" t="str">
+      <c r="N52" s="15" t="str">
         <f t="shared" si="4"/>
         <v>4D</v>
       </c>
@@ -8846,19 +8866,19 @@
       <c r="G53" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" s="15" t="str">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53" s="15" t="str">
         <f t="shared" si="5"/>
         <v>2C</v>
       </c>
-      <c r="N53" t="str">
+      <c r="N53" s="15" t="str">
         <f t="shared" si="4"/>
         <v>3C</v>
       </c>
@@ -8882,19 +8902,19 @@
       <c r="G54" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" s="15" t="str">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="15">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="M54" t="str">
+      <c r="M54" s="15" t="str">
         <f t="shared" si="5"/>
         <v>2E</v>
       </c>
-      <c r="N54" t="str">
+      <c r="N54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>3E</v>
       </c>
@@ -8918,19 +8938,19 @@
       <c r="G55" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4A</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="15">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M55" s="15" t="str">
         <f t="shared" si="5"/>
         <v>2F</v>
       </c>
-      <c r="N55" t="str">
+      <c r="N55" s="15" t="str">
         <f t="shared" si="4"/>
         <v>3F</v>
       </c>
@@ -9006,15 +9026,15 @@
         <v>263</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="K59" t="str">
+      <c r="K59" s="15" t="str">
         <f t="shared" ref="K59" si="6">MID(D59, 2, 2)</f>
         <v>29</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="15">
         <f t="shared" ref="L59" si="7">HEX2DEC(K59)</f>
         <v>41</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="15">
         <v>20</v>
       </c>
     </row>
@@ -9269,7 +9289,7 @@
         <v>330</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="K73" t="str">
+      <c r="K73" s="15" t="str">
         <f t="shared" ref="K73:K87" si="8">MID(D73, 2, 2)</f>
         <v>6C</v>
       </c>
@@ -9291,7 +9311,7 @@
         <v>334</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="K74" t="str">
+      <c r="K74" s="15" t="str">
         <f t="shared" si="8"/>
         <v>6B</v>
       </c>
@@ -9313,7 +9333,7 @@
         <v>338</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="K75" t="str">
+      <c r="K75" s="15" t="str">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
@@ -9353,7 +9373,7 @@
         <v>346</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="K77" t="str">
+      <c r="K77" s="15" t="str">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -9375,7 +9395,7 @@
         <v>350</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="K78" t="str">
+      <c r="K78" s="15" t="str">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>354</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="K79" t="str">
+      <c r="K79" s="15" t="str">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
@@ -9419,7 +9439,7 @@
         <v>358</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="K80" t="str">
+      <c r="K80" s="15" t="str">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
@@ -9441,7 +9461,7 @@
         <v>363</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="K81" t="str">
+      <c r="K81" s="15" t="str">
         <f t="shared" si="8"/>
         <v>7C</v>
       </c>
@@ -9463,7 +9483,7 @@
         <v>367</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="K82" t="str">
+      <c r="K82" s="15" t="str">
         <f t="shared" si="8"/>
         <v>7D</v>
       </c>
@@ -9485,7 +9505,7 @@
         <v>371</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="K83" t="str">
+      <c r="K83" s="15" t="str">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
@@ -9507,7 +9527,7 @@
         <v>375</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="K84" t="str">
+      <c r="K84" s="15" t="str">
         <f t="shared" si="8"/>
         <v>7A</v>
       </c>
@@ -9529,7 +9549,7 @@
         <v>379</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="K85" t="str">
+      <c r="K85" s="15" t="str">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
@@ -9551,7 +9571,7 @@
         <v>384</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="K86" t="str">
+      <c r="K86" s="15" t="str">
         <f t="shared" si="8"/>
         <v>7B</v>
       </c>
@@ -9573,7 +9593,7 @@
         <v>388</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="K87" t="str">
+      <c r="K87" s="15" t="str">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
@@ -9902,8 +9922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10D42C-C0C1-40A4-8354-68B60F5B3ADE}">
   <dimension ref="C2:J259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F259" sqref="F4:F259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12888,21 +12908,21 @@
       <c r="C106">
         <v>102</v>
       </c>
-      <c r="D106" t="e">
+      <c r="D106" t="str">
         <f>INDEX(Sheet1!$M$5:$M$55, MATCH(C106,Sheet1!$L$5:$L$55, 0))</f>
-        <v>#N/A</v>
+        <v>08</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 08</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="5"/>
-        <v>66:  00;</v>
-      </c>
-      <c r="H106" t="e">
+        <v>66:  08;</v>
+      </c>
+      <c r="H106">
         <f>INDEX(Sheet1!$N$5:$N$55, MATCH(C106,Sheet1!$L$5:$L$55, 0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="6"/>
